--- a/public/excelReports/noticiaAdministrativa/nuevos/NOTICIA ADMINISTRATIVA.xlsx
+++ b/public/excelReports/noticiaAdministrativa/nuevos/NOTICIA ADMINISTRATIVA.xlsx
@@ -8,28 +8,40 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jordy\Documents\Projects\PersonalProjects\CreateAnalisysReport\public\excelReports\noticiaAdministrativa\nuevos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DE9D17-20AC-4660-AC3F-138375CCB272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4501D5-92A2-4531-B1F9-AC7A69FCAC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
     <sheet name="duplicados" sheetId="6" r:id="rId2"/>
-    <sheet name="Hoja 4" sheetId="2" r:id="rId3"/>
-    <sheet name="ListadoDependencias" sheetId="3" r:id="rId4"/>
-    <sheet name="Columna Tareas" sheetId="4" r:id="rId5"/>
-    <sheet name="ConceptosPBr" sheetId="5" r:id="rId6"/>
+    <sheet name="Hoja2" sheetId="7" r:id="rId3"/>
+    <sheet name="Hoja 4" sheetId="2" r:id="rId4"/>
+    <sheet name="ListadoDependencias" sheetId="3" r:id="rId5"/>
+    <sheet name="Columna Tareas" sheetId="4" r:id="rId6"/>
+    <sheet name="ConceptosPBr" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hoja 1'!$A$1:$AC$36</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Hoja 4'!$C$1:$I$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Hoja 4'!$C$1:$I$89</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="308">
   <si>
     <t xml:space="preserve">Tarea
 </t>
@@ -1396,8 +1408,8 @@
   </sheetPr>
   <dimension ref="A1:AC746"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1738,7 +1750,7 @@
       <c r="K8" t="s">
         <v>18</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="24" t="s">
         <v>13</v>
       </c>
     </row>
@@ -24867,7 +24879,7 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -24940,6 +24952,342 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338C0312-5664-4A55-B028-4D4BFB5395EF}">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="105.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="str">
+        <f>_xlfn.CONCAT("'", A2, "',")</f>
+        <v>'Audiencias',</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B36" si="0">_xlfn.CONCAT("'", A3, "',")</f>
+        <v>'Reuniones',</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>'Eventos',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>'Correspondencia Recibida',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>'Correspondencia Enviada',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>'Reuniones',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Correspondencia Enviada',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>'Reuniones de Trabajo',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>'Entrevistas y Rueda de Prensa',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>'Correspondencia Recibida',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>'Correspondencia Enviada',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>'Solicitudes de Apoyo',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>'Correspondencia Recibida',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>'Correspondencia Enviada',</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>'Reuniones de Trabajo',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>'Entrevistas y Rueda de Prensa',</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>'Correspondencia Recibida',</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>'Correspondencia Enviada',</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Solicitudes de Apoyo',</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>'Correspondencia Recibida',</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>'Correspondencia Enviada',</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>'Avisos de Apertura de Negocios',</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>'Fiscalización a Eventos y Espectáculos Públicos en el Municipio',</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>'Bailes públicos',</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>'Rifas y sorteos',</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>'Órdenes de Visita emitidas por la Coordinación de Fiscalización de Mercados, Central e Industrial de Abasto',</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>'Actas de Clausura',</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>'Acuerdos de Caducidades y/o Prescripción a contribuyentes para regulariar su situación fiscal e incrementar la recaudación',</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>'Convenios de Pago en Parcialidades para Incentivar el Pago de Contribuciones',</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>'Actualización al Padrón Catastral mediante el Sistema Server Box (Módulo Cartográfico)',</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>'Claves Catastrales asignadas',</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>'Cuentas prediales dadas de alta de predios sustraídos a la acción fiscal y altas con inscripción al Impuesto Predial',</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>'Altas de cuentas prediales',</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>'Expedición de Registros Catastrales',</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -55939,7 +56287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -56166,7 +56514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -56205,7 +56553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
